--- a/biology/Zoologie/Conure_de_Wagler/Conure_de_Wagler.xlsx
+++ b/biology/Zoologie/Conure_de_Wagler/Conure_de_Wagler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psittacara wagleri
 La Conure de Wagler (Psittacara wagleri, anciennement Aratinga wagleri) est une espèce d'oiseaux néotropicaux.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les Andes entre le Venezuela et le Pérou.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 36 cm de long. Il présente un plumage essentiellement vert avec du rouge essentiellement au niveau du front et de la calotte. Ils mangent généralement des petits scorpions et des mygales grâce à leur bec hors du commun. Ce sont des oiseaux faciles à domestiquer et très amicaux.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les forêts jusqu'à 3 000 m d'altitude. Certaines personnes les chassent à cause de leur cri extrêmement énervant !
 </t>
@@ -605,12 +623,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce fait partie du groupe des conures vertes à front rouge avec la Conure de Finsch, la Conure mitrée et la Conure à tête rouge.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fait partie du groupe des conures vertes à front rouge avec la Conure de Finsch, la Conure mitrée et la Conure à tête rouge.
 Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure de Wagler est déplacée vers le genre Psittacara.
-Sous-espèces
-D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conure_de_Wagler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conure_de_Wagler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Psittacara wagleri wagleri  (G.R. Gray, 1845) ; a des écailles rouges au niveau du cou ;
 Psittacara wagleri transilis  (J.L. Peters, 1927) ; a des écailles rouges au niveau du cou également mais un plumage vert plus foncé ;
 Psittacara wagleri frontatus  (Cabanis, 1846) ; a des taches rouges sur les épaules ;
